--- a/Tablica.xlsx
+++ b/Tablica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\FER\10. Semestar\Paralelno Programiranje\Labosi\Lab2_MPI_C4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -242,9 +242,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
@@ -282,6 +281,12 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -293,12 +298,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -423,10 +422,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$11</c:f>
+              <c:f>Sheet1!$B$4:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -449,6 +448,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -456,10 +458,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$11</c:f>
+              <c:f>Sheet1!$G$4:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>28.786666666666665</c:v>
                 </c:pt>
@@ -479,9 +481,12 @@
                   <c:v>5.4066666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.29</c:v>
+                  <c:v>4.3299999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>4.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>9.6600000000000019</c:v>
                 </c:pt>
               </c:numCache>
@@ -512,10 +517,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$11</c:f>
+              <c:f>Sheet1!$H$4:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>28.786666666666665</c:v>
                 </c:pt>
@@ -538,6 +543,9 @@
                   <c:v>4.1123809523809518</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3.5983333333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3.5983333333333332</c:v>
                 </c:pt>
               </c:numCache>
@@ -546,7 +554,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -556,8 +563,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="239393536"/>
-        <c:axId val="239393144"/>
+        <c:axId val="437529272"/>
+        <c:axId val="438256584"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -585,10 +592,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$11</c:f>
+              <c:f>Sheet1!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -611,6 +618,9 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>343</c:v>
                 </c:pt>
               </c:numCache>
@@ -628,16 +638,79 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="244859560"/>
-        <c:axId val="243091392"/>
+        <c:axId val="438262856"/>
+        <c:axId val="438258936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="239393536"/>
+        <c:axId val="437529272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Broj procesora</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47910867772352839"/>
+              <c:y val="0.72520453710707311"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sr-Latn-RS"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -675,7 +748,7 @@
             <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239393144"/>
+        <c:crossAx val="438256584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -683,7 +756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="239393144"/>
+        <c:axId val="438256584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,14 +864,14 @@
             <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239393536"/>
+        <c:crossAx val="437529272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="243091392"/>
+        <c:axId val="438258936"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -890,12 +963,12 @@
             <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244859560"/>
+        <c:crossAx val="438262856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="244859560"/>
+        <c:axId val="438262856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -904,7 +977,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243091392"/>
+        <c:crossAx val="438258936"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1090,10 +1164,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$11</c:f>
+              <c:f>Sheet1!$B$4:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1116,6 +1190,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1123,10 +1200,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$11</c:f>
+              <c:f>Sheet1!$I$4:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1146,9 +1223,12 @@
                   <c:v>0.8873818331278257</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95859695859695848</c:v>
+                  <c:v>0.94974155944132865</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.83038461538461539</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.3724982746721876</c:v>
                 </c:pt>
               </c:numCache>
@@ -1179,10 +1259,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$11</c:f>
+              <c:f>Sheet1!$J$4:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1205,6 +1285,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1220,17 +1303,156 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="505916280"/>
-        <c:axId val="244859168"/>
+        <c:axId val="438257760"/>
+        <c:axId val="188066192"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Broj zadataka</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="445397736"/>
+        <c:axId val="188065800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="505916280"/>
+        <c:axId val="438257760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Broj procesora</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48274069683941845"/>
+              <c:y val="0.72240635623310212"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sr-Latn-RS"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1268,7 +1490,7 @@
             <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244859168"/>
+        <c:crossAx val="188066192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1276,7 +1498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244859168"/>
+        <c:axId val="188066192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1384,10 +1606,125 @@
             <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505916280"/>
+        <c:crossAx val="438257760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="188065800"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Broj zadataka</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sr-Latn-RS"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sr-Latn-RS"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445397736"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="445397736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="188065800"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
@@ -1568,10 +1905,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$11</c:f>
+              <c:f>Sheet1!$B$4:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1594,6 +1931,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1601,10 +1941,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$K$11</c:f>
+              <c:f>Sheet1!$K$4:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1624,9 +1964,12 @@
                   <c:v>5.324290998766954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7101787101787096</c:v>
+                  <c:v>6.6481909160893009</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>6.6430769230769231</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2.9799861973775008</c:v>
                 </c:pt>
               </c:numCache>
@@ -1657,10 +2000,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$4:$L$11</c:f>
+              <c:f>Sheet1!$L$4:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1683,6 +2026,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1698,17 +2044,160 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504436976"/>
-        <c:axId val="504438936"/>
+        <c:axId val="440708200"/>
+        <c:axId val="440705848"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Broj zadataka</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="445402440"/>
+        <c:axId val="437531232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="504436976"/>
+        <c:axId val="440708200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Broj</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> procesora</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50046993229788939"/>
+              <c:y val="0.76437906934266764"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sr-Latn-RS"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1746,7 +2235,7 @@
             <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504438936"/>
+        <c:crossAx val="440705848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1754,7 +2243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="504438936"/>
+        <c:axId val="440705848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,10 +2351,126 @@
             <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504436976"/>
+        <c:crossAx val="440708200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="437531232"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Broj zadataka</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sr-Latn-RS"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sr-Latn-RS"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445402440"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="445402440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="437531232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
@@ -3623,15 +4228,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3653,15 +4258,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3685,15 +4290,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3982,8 +4587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4001,424 +4606,465 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="29" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>7</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <f>POWER(B4, 2)</f>
         <v>1</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>28.5</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>29.08</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>28.78</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <f>AVERAGE(D4:F4)</f>
         <v>28.786666666666665</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <f>$G$4/B4</f>
         <v>28.786666666666665</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <f>$G$4/(B4*G4)</f>
         <v>1</v>
       </c>
-      <c r="J4" s="15">
-        <f>L4/B4</f>
+      <c r="J4" s="14">
+        <f t="shared" ref="J4:J11" si="0">L4/B4</f>
         <v>1</v>
       </c>
-      <c r="K4" s="16">
-        <f>B4*I4</f>
+      <c r="K4" s="15">
+        <f t="shared" ref="K4:K11" si="1">B4*I4</f>
         <v>1</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="16">
         <f>B4</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>7</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>16.489999999999998</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>16.41</v>
       </c>
-      <c r="G5" s="4">
-        <f t="shared" ref="G5:G11" si="0">AVERAGE(D5:F5)</f>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G11" si="2">AVERAGE(D5:F5)</f>
         <v>16.433333333333334</v>
       </c>
-      <c r="H5" s="5">
-        <f t="shared" ref="H5:H11" si="1">$G$4/B5</f>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H11" si="3">$G$4/B5</f>
         <v>14.393333333333333</v>
       </c>
-      <c r="I5" s="6">
-        <f t="shared" ref="I5:I11" si="2">$G$4/(B5*G5)</f>
+      <c r="I5" s="5">
+        <f t="shared" ref="I5:I11" si="4">$G$4/(B5*G5)</f>
         <v>0.87586206896551722</v>
       </c>
-      <c r="J5" s="7">
-        <f>L5/B5</f>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K5" s="8">
-        <f>B5*I5</f>
+      <c r="K5" s="7">
+        <f t="shared" si="1"/>
         <v>1.7517241379310344</v>
       </c>
-      <c r="L5" s="9">
-        <f t="shared" ref="L5:L11" si="3">B5</f>
+      <c r="L5" s="8">
+        <f t="shared" ref="L5:L11" si="5">B5</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>49</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>10</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>9.8800000000000008</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>9.51</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>9.7966666666666669</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="3"/>
+        <v>9.5955555555555545</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.97947147555857994</v>
+      </c>
+      <c r="J6" s="6">
         <f t="shared" si="0"/>
-        <v>9.7966666666666669</v>
-      </c>
-      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
         <f t="shared" si="1"/>
-        <v>9.5955555555555545</v>
-      </c>
-      <c r="I6" s="6">
-        <f t="shared" si="2"/>
-        <v>0.97947147555857994</v>
-      </c>
-      <c r="J6" s="7">
-        <f>L6/B6</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="8">
-        <f>B6*I6</f>
         <v>2.9384144266757399</v>
       </c>
-      <c r="L6" s="9">
-        <f t="shared" si="3"/>
+      <c r="L6" s="8">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>49</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>7.78</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>7.65</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>7.91</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>7.78</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="3"/>
+        <v>7.1966666666666663</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.92502142245072827</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="0"/>
-        <v>7.78</v>
-      </c>
-      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
         <f t="shared" si="1"/>
-        <v>7.1966666666666663</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" si="2"/>
-        <v>0.92502142245072827</v>
-      </c>
-      <c r="J7" s="7">
-        <f>L7/B7</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="8">
-        <f>B7*I7</f>
         <v>3.7000856898029131</v>
       </c>
-      <c r="L7" s="9">
-        <f t="shared" si="3"/>
+      <c r="L7" s="8">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>49</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>5.98</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>5.96</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>5.91</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>5.95</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="3"/>
+        <v>5.7573333333333334</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="4"/>
+        <v>0.9676190476190476</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="0"/>
-        <v>5.95</v>
-      </c>
-      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
         <f t="shared" si="1"/>
-        <v>5.7573333333333334</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="2"/>
-        <v>0.9676190476190476</v>
-      </c>
-      <c r="J8" s="7">
-        <f>L8/B8</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="8">
-        <f>B8*I8</f>
         <v>4.8380952380952378</v>
       </c>
-      <c r="L8" s="9">
-        <f t="shared" si="3"/>
+      <c r="L8" s="8">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>49</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>5.4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>5.41</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>5.41</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>5.4066666666666663</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="3"/>
+        <v>4.7977777777777773</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="4"/>
+        <v>0.8873818331278257</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="0"/>
-        <v>5.4066666666666663</v>
-      </c>
-      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
         <f t="shared" si="1"/>
-        <v>4.7977777777777773</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="2"/>
-        <v>0.8873818331278257</v>
-      </c>
-      <c r="J9" s="7">
-        <f>L9/B9</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="8">
-        <f>B9*I9</f>
         <v>5.324290998766954</v>
       </c>
-      <c r="L9" s="9">
-        <f t="shared" si="3"/>
+      <c r="L9" s="8">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>49</v>
       </c>
-      <c r="D10" s="4">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="3">
+        <v>4.34</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F10" s="3">
         <v>4.3</v>
       </c>
-      <c r="F10" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>4.3299999999999992</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="3"/>
+        <v>4.1123809523809518</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.94974155944132865</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" si="0"/>
-        <v>4.29</v>
-      </c>
-      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
         <f t="shared" si="1"/>
-        <v>4.1123809523809518</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="2"/>
-        <v>0.95859695859695848</v>
-      </c>
-      <c r="J10" s="7">
-        <f>L10/B10</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="8">
-        <f>B10*I10</f>
-        <v>6.7101787101787096</v>
-      </c>
-      <c r="L10" s="9">
-        <f t="shared" si="3"/>
+        <v>6.6481909160893009</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="2">
-        <v>343</v>
-      </c>
-      <c r="D11" s="4">
-        <v>9.64</v>
-      </c>
-      <c r="E11" s="4">
-        <v>9.67</v>
-      </c>
-      <c r="F11" s="4">
-        <v>9.67</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="0"/>
-        <v>9.6600000000000019</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="1"/>
+      <c r="C11" s="1">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4.33</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.32</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" ref="G11" si="6">AVERAGE(D11:F11)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" ref="H11" si="7">$G$4/B11</f>
         <v>3.5983333333333332</v>
       </c>
-      <c r="I11" s="6">
-        <f t="shared" si="2"/>
-        <v>0.3724982746721876</v>
-      </c>
-      <c r="J11" s="7">
-        <f>L11/B11</f>
+      <c r="I11" s="5">
+        <f t="shared" ref="I11" si="8">$G$4/(B11*G11)</f>
+        <v>0.83038461538461539</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" ref="J11" si="9">L11/B11</f>
         <v>1</v>
       </c>
-      <c r="K11" s="8">
-        <f>B11*I11</f>
-        <v>2.9799861973775008</v>
-      </c>
-      <c r="L11" s="9">
-        <f t="shared" si="3"/>
+      <c r="K11" s="7">
+        <f t="shared" ref="K11" si="10">B11*I11</f>
+        <v>6.6430769230769231</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" ref="L11" si="11">B11</f>
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F12" s="1"/>
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>343</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9.64</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9.67</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9.67</v>
+      </c>
+      <c r="G12" s="3">
+        <f>AVERAGE(D12:F12)</f>
+        <v>9.6600000000000019</v>
+      </c>
+      <c r="H12" s="4">
+        <f>$G$4/B12</f>
+        <v>3.5983333333333332</v>
+      </c>
+      <c r="I12" s="5">
+        <f>$G$4/(B12*G12)</f>
+        <v>0.3724982746721876</v>
+      </c>
+      <c r="J12" s="6">
+        <f>L12/B12</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <f>B12*I12</f>
+        <v>2.9799861973775008</v>
+      </c>
+      <c r="L12" s="8">
+        <f>B12</f>
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
